--- a/many_cex/Mohammad_Path/find_trans.xlsx
+++ b/many_cex/Mohammad_Path/find_trans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lando\Documents\GitHub\cex_permute\many_cex\Mohammad_Path\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A30E106-F258-4895-9548-3430D5027598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BC67C8-A01B-4ED4-A841-E825C638CD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{4F1AD106-4253-4439-8AA1-869CAA9CDF2F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>From</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Reaction</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -408,11 +411,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108638A2-DFF9-4D56-AB20-8AAA7899FB02}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C101" sqref="C101"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +424,7 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +434,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -442,8 +448,12 @@
       <c r="C2" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>"r"&amp;C2</f>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -453,8 +463,12 @@
       <c r="C3" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D66" si="0">"r"&amp;C3</f>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -464,8 +478,12 @@
       <c r="C4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -475,8 +493,12 @@
       <c r="C5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -486,8 +508,12 @@
       <c r="C6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -497,8 +523,12 @@
       <c r="C7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -508,8 +538,12 @@
       <c r="C8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -519,8 +553,12 @@
       <c r="C9" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -530,8 +568,12 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -541,8 +583,12 @@
       <c r="C11" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -552,8 +598,12 @@
       <c r="C12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -563,8 +613,12 @@
       <c r="C13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -574,8 +628,12 @@
       <c r="C14" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -585,8 +643,12 @@
       <c r="C15" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -596,8 +658,12 @@
       <c r="C16" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -607,8 +673,12 @@
       <c r="C17" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -618,8 +688,12 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -629,8 +703,12 @@
       <c r="C19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -640,8 +718,12 @@
       <c r="C20" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -651,8 +733,12 @@
       <c r="C21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -662,8 +748,12 @@
       <c r="C22" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -673,8 +763,12 @@
       <c r="C23" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -684,8 +778,12 @@
       <c r="C24" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -695,8 +793,12 @@
       <c r="C25" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -706,8 +808,12 @@
       <c r="C26" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -717,8 +823,12 @@
       <c r="C27" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -728,8 +838,12 @@
       <c r="C28" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -739,8 +853,12 @@
       <c r="C29" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -750,8 +868,12 @@
       <c r="C30" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -761,8 +883,12 @@
       <c r="C31" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -772,8 +898,12 @@
       <c r="C32" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -783,8 +913,12 @@
       <c r="C33" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -794,8 +928,12 @@
       <c r="C34" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -805,8 +943,12 @@
       <c r="C35" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -816,8 +958,12 @@
       <c r="C36" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -827,8 +973,12 @@
       <c r="C37" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -838,8 +988,12 @@
       <c r="C38" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -849,8 +1003,12 @@
       <c r="C39" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -860,8 +1018,12 @@
       <c r="C40" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -871,8 +1033,12 @@
       <c r="C41" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -882,8 +1048,12 @@
       <c r="C42" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -893,8 +1063,12 @@
       <c r="C43" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -904,8 +1078,12 @@
       <c r="C44" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -915,8 +1093,12 @@
       <c r="C45" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -926,8 +1108,12 @@
       <c r="C46" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -937,8 +1123,12 @@
       <c r="C47" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -948,8 +1138,12 @@
       <c r="C48" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -959,8 +1153,12 @@
       <c r="C49" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -970,8 +1168,12 @@
       <c r="C50" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -981,8 +1183,12 @@
       <c r="C51" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -992,8 +1198,12 @@
       <c r="C52" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -1003,8 +1213,12 @@
       <c r="C53" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -1014,8 +1228,12 @@
       <c r="C54" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -1025,8 +1243,12 @@
       <c r="C55" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -1036,8 +1258,12 @@
       <c r="C56" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -1047,8 +1273,12 @@
       <c r="C57" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -1058,8 +1288,12 @@
       <c r="C58" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -1069,8 +1303,12 @@
       <c r="C59" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -1080,8 +1318,12 @@
       <c r="C60" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -1091,8 +1333,12 @@
       <c r="C61" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -1102,8 +1348,12 @@
       <c r="C62" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -1113,8 +1363,12 @@
       <c r="C63" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -1124,8 +1378,12 @@
       <c r="C64" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -1135,8 +1393,12 @@
       <c r="C65" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -1146,8 +1408,12 @@
       <c r="C66" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -1157,8 +1423,12 @@
       <c r="C67" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="str">
+        <f t="shared" ref="D67:D101" si="1">"r"&amp;C67</f>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -1168,8 +1438,12 @@
       <c r="C68" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -1179,8 +1453,12 @@
       <c r="C69" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -1190,8 +1468,12 @@
       <c r="C70" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -1201,8 +1483,12 @@
       <c r="C71" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -1212,8 +1498,12 @@
       <c r="C72" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -1223,8 +1513,12 @@
       <c r="C73" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -1234,8 +1528,12 @@
       <c r="C74" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -1245,8 +1543,12 @@
       <c r="C75" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -1256,8 +1558,12 @@
       <c r="C76" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -1267,8 +1573,12 @@
       <c r="C77" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -1278,8 +1588,12 @@
       <c r="C78" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -1289,8 +1603,12 @@
       <c r="C79" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>78</v>
       </c>
@@ -1300,8 +1618,12 @@
       <c r="C80" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -1311,8 +1633,12 @@
       <c r="C81" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -1322,8 +1648,12 @@
       <c r="C82" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -1333,8 +1663,12 @@
       <c r="C83" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -1344,8 +1678,12 @@
       <c r="C84" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -1355,8 +1693,12 @@
       <c r="C85" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
@@ -1366,8 +1708,12 @@
       <c r="C86" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -1377,8 +1723,12 @@
       <c r="C87" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -1388,8 +1738,12 @@
       <c r="C88" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -1399,8 +1753,12 @@
       <c r="C89" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -1410,8 +1768,12 @@
       <c r="C90" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -1421,8 +1783,12 @@
       <c r="C91" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -1432,8 +1798,12 @@
       <c r="C92" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -1443,8 +1813,12 @@
       <c r="C93" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -1454,8 +1828,12 @@
       <c r="C94" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -1465,8 +1843,12 @@
       <c r="C95" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -1476,8 +1858,12 @@
       <c r="C96" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -1487,8 +1873,12 @@
       <c r="C97" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -1498,8 +1888,12 @@
       <c r="C98" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -1509,8 +1903,12 @@
       <c r="C99" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -1520,8 +1918,12 @@
       <c r="C100" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -1530,6 +1932,10 @@
       </c>
       <c r="C101" s="2">
         <v>5</v>
+      </c>
+      <c r="D101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>r5</v>
       </c>
     </row>
   </sheetData>
